--- a/Sources/Rooms.Tests/UnitTests/Spreadsheets/TestCases/rooms-verified.xlsx
+++ b/Sources/Rooms.Tests/UnitTests/Spreadsheets/TestCases/rooms-verified.xlsx
@@ -86,7 +86,7 @@
     <t xml:space="preserve">UokhlJTZoy</t>
   </si>
   <si>
-    <t xml:space="preserve">Не готова</t>
+    <t xml:space="preserve">Ничего не работает</t>
   </si>
   <si>
     <t xml:space="preserve">KPfH9jDdj9</t>
